--- a/documentation/Use Cases Scénarios/UseCasesScénarios_V1.0.1.xlsx
+++ b/documentation/Use Cases Scénarios/UseCasesScénarios_V1.0.1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPNV\BatailleNavale\Documentation\Use Cases Scénarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliott.JAQUIER\MA20\BatailleNavale\documentation\Use Cases Scénarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5155AFE-27CE-449C-8C5D-CED5ADCAEB2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
-    <sheet name="Toucher des cases" sheetId="7" r:id="rId1"/>
+    <sheet name="Jouer une partie" sheetId="7" r:id="rId1"/>
     <sheet name="Authentification" sheetId="3" r:id="rId2"/>
     <sheet name="Scores" sheetId="4" r:id="rId3"/>
     <sheet name="Aide" sheetId="1" r:id="rId4"/>
@@ -69,15 +68,9 @@
     <t>Le joueur saisi l'aide dans le menu</t>
   </si>
   <si>
-    <t>BatNav-Fire</t>
-  </si>
-  <si>
     <t>BatNav-Help</t>
   </si>
   <si>
-    <t>Toucher des bateaux</t>
-  </si>
-  <si>
     <t>Le joueur saisi "jouer" dans le menu</t>
   </si>
   <si>
@@ -159,9 +152,6 @@
     <t>Le joueur retourne au menu</t>
   </si>
   <si>
-    <t>Envoyer des missiles à un endroit sur la grille</t>
-  </si>
-  <si>
     <t>Le joueur saisi A7</t>
   </si>
   <si>
@@ -226,12 +216,21 @@
   </si>
   <si>
     <t>Chargement d'une carte depuis un fichier d'un sous-dossier</t>
+  </si>
+  <si>
+    <t>BatNav-Play</t>
+  </si>
+  <si>
+    <t>Envoyer des missiles à un endroit sur la grille afin de toucher des bateaux</t>
+  </si>
+  <si>
+    <t>Pouvoir jouer une partie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,12 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -423,6 +416,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -704,17 +703,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" customWidth="1"/>
     <col min="3" max="3" width="98.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -723,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -770,152 +769,152 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="21"/>
+      <c r="A9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="19"/>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
+      <c r="A14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,25 +971,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -1009,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1041,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,46 +1056,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1205,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,28 +1219,28 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1334,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1366,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,10 +1389,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
